--- a/tabulky.xlsx
+++ b/tabulky.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
   <si>
     <t xml:space="preserve">Anglický jazyk </t>
   </si>
@@ -194,15 +194,9 @@
     <t>Pružina</t>
   </si>
   <si>
-    <t>Faixate</t>
-  </si>
-  <si>
     <t>Refractive index</t>
   </si>
   <si>
-    <t>Accelleration</t>
-  </si>
-  <si>
     <t>Buoyancy</t>
   </si>
   <si>
@@ -237,6 +231,57 @@
   </si>
   <si>
     <t>Thruster</t>
+  </si>
+  <si>
+    <t>Rope</t>
+  </si>
+  <si>
+    <t>Acceleration</t>
+  </si>
+  <si>
+    <t>Zrychlení</t>
+  </si>
+  <si>
+    <t>Přidat</t>
+  </si>
+  <si>
+    <t>Úhel</t>
+  </si>
+  <si>
+    <t>úhlová rychlost</t>
+  </si>
+  <si>
+    <t>Přitažlivost</t>
+  </si>
+  <si>
+    <t>Osa (Osy)</t>
+  </si>
+  <si>
+    <t>Hřídel</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>těleso</t>
+  </si>
+  <si>
+    <t>štětec</t>
+  </si>
+  <si>
+    <t>Vztlak</t>
+  </si>
+  <si>
+    <t>Fixate</t>
+  </si>
+  <si>
+    <t>Kopie</t>
+  </si>
+  <si>
+    <t>Srážka</t>
+  </si>
+  <si>
+    <t>řezat, rozříznout</t>
   </si>
 </sst>
 </file>
@@ -589,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +646,7 @@
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -609,160 +654,192 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -774,7 +851,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -857,7 +934,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -935,12 +1012,12 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -950,7 +1027,7 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
@@ -971,6 +1048,11 @@
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/tabulky.xlsx
+++ b/tabulky.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="135">
   <si>
     <t xml:space="preserve">Anglický jazyk </t>
   </si>
@@ -32,234 +32,12 @@
     <t>Český jazyk</t>
   </si>
   <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Restitution</t>
-  </si>
-  <si>
-    <t>Attraction</t>
-  </si>
-  <si>
-    <t>Veloctiy</t>
-  </si>
-  <si>
-    <t>Momentum</t>
-  </si>
-  <si>
-    <t>Force</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>Scene</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Tool</t>
-  </si>
-  <si>
-    <t>Sketch</t>
-  </si>
-  <si>
-    <t>Kife</t>
-  </si>
-  <si>
-    <t>Body</t>
-  </si>
-  <si>
-    <t>Move</t>
-  </si>
-  <si>
-    <t>Layer</t>
-  </si>
-  <si>
-    <t>Rotate</t>
-  </si>
-  <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Eraser</t>
-  </si>
-  <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>Encircling</t>
-  </si>
-  <si>
-    <t>Infinite</t>
-  </si>
-  <si>
-    <t>Plane</t>
-  </si>
-  <si>
-    <t>Axis (Axes)</t>
-  </si>
-  <si>
     <t>tah štětce</t>
   </si>
   <si>
-    <t>Polygon</t>
-  </si>
-  <si>
-    <t>Liquify</t>
-  </si>
-  <si>
-    <t>Spongify</t>
-  </si>
-  <si>
-    <t>Clone</t>
-  </si>
-  <si>
-    <t>Mirror</t>
-  </si>
-  <si>
-    <t>Plot</t>
-  </si>
-  <si>
-    <t>Glass</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Helium</t>
-  </si>
-  <si>
-    <t>Ice</t>
-  </si>
-  <si>
-    <t>Rubber</t>
-  </si>
-  <si>
-    <t>Steel</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Mass</t>
-  </si>
-  <si>
-    <t>Friction</t>
-  </si>
-  <si>
-    <t>Density+2:38</t>
-  </si>
-  <si>
-    <t>Angular velocity</t>
-  </si>
-  <si>
-    <t>Moment of inertia</t>
-  </si>
-  <si>
-    <t>Kinetic energy</t>
-  </si>
-  <si>
-    <t>Potential energy</t>
-  </si>
-  <si>
-    <t>Add</t>
-  </si>
-  <si>
-    <t>Chain</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Spoj</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>Pružina</t>
-  </si>
-  <si>
-    <t>Refractive index</t>
-  </si>
-  <si>
-    <t>Buoyancy</t>
-  </si>
-  <si>
-    <t>Gravity</t>
-  </si>
-  <si>
-    <t>Tracer</t>
-  </si>
-  <si>
-    <t>Axle</t>
-  </si>
-  <si>
-    <t>Brush</t>
-  </si>
-  <si>
-    <t>Brush-stroke</t>
-  </si>
-  <si>
-    <t>Collision</t>
-  </si>
-  <si>
-    <t>Cut</t>
-  </si>
-  <si>
-    <t>Glue</t>
-  </si>
-  <si>
-    <t>Intersect</t>
-  </si>
-  <si>
-    <t>Subtract</t>
-  </si>
-  <si>
-    <t>Thruster</t>
-  </si>
-  <si>
-    <t>Rope</t>
-  </si>
-  <si>
-    <t>Acceleration</t>
-  </si>
-  <si>
-    <t>Zrychlení</t>
-  </si>
-  <si>
-    <t>Přidat</t>
-  </si>
-  <si>
-    <t>Úhel</t>
-  </si>
-  <si>
     <t>úhlová rychlost</t>
   </si>
   <si>
-    <t>Přitažlivost</t>
-  </si>
-  <si>
-    <t>Osa (Osy)</t>
-  </si>
-  <si>
-    <t>Hřídel</t>
-  </si>
-  <si>
     <t>??</t>
   </si>
   <si>
@@ -269,19 +47,388 @@
     <t>štětec</t>
   </si>
   <si>
-    <t>Vztlak</t>
-  </si>
-  <si>
-    <t>Fixate</t>
-  </si>
-  <si>
-    <t>Kopie</t>
-  </si>
-  <si>
-    <t>Srážka</t>
-  </si>
-  <si>
     <t>řezat, rozříznout</t>
+  </si>
+  <si>
+    <t>obepínat</t>
+  </si>
+  <si>
+    <t>hustota</t>
+  </si>
+  <si>
+    <t>guma</t>
+  </si>
+  <si>
+    <t>upevnit</t>
+  </si>
+  <si>
+    <t>síla</t>
+  </si>
+  <si>
+    <t>tření</t>
+  </si>
+  <si>
+    <t>sklo</t>
+  </si>
+  <si>
+    <t>lepit</t>
+  </si>
+  <si>
+    <t>přitažlivost</t>
+  </si>
+  <si>
+    <t>hélium</t>
+  </si>
+  <si>
+    <t>řetěz</t>
+  </si>
+  <si>
+    <t>led</t>
+  </si>
+  <si>
+    <t>nekonečně</t>
+  </si>
+  <si>
+    <t>průsečík</t>
+  </si>
+  <si>
+    <t>nůž</t>
+  </si>
+  <si>
+    <t>pohybová energie</t>
+  </si>
+  <si>
+    <t>vrstva</t>
+  </si>
+  <si>
+    <t>zkapalnit</t>
+  </si>
+  <si>
+    <t>hmotnost</t>
+  </si>
+  <si>
+    <t>zrcadlo zrcadlit</t>
+  </si>
+  <si>
+    <t>moment setrvačnosti</t>
+  </si>
+  <si>
+    <t>hybnost</t>
+  </si>
+  <si>
+    <t>pohybovat se</t>
+  </si>
+  <si>
+    <t>tělo</t>
+  </si>
+  <si>
+    <t>rovina</t>
+  </si>
+  <si>
+    <t>graf</t>
+  </si>
+  <si>
+    <t>mnohoúhelník</t>
+  </si>
+  <si>
+    <t>polohová energie</t>
+  </si>
+  <si>
+    <t>index lomu</t>
+  </si>
+  <si>
+    <t>vzpruživost</t>
+  </si>
+  <si>
+    <t>viz  výkladový slovník fyziky s.148</t>
+  </si>
+  <si>
+    <t>škála, škálovat</t>
+  </si>
+  <si>
+    <t>scéna</t>
+  </si>
+  <si>
+    <t>náčrt, načrtnout</t>
+  </si>
+  <si>
+    <t>zhoubovatět</t>
+  </si>
+  <si>
+    <t>ocel</t>
+  </si>
+  <si>
+    <t>kámen</t>
+  </si>
+  <si>
+    <t>odečíst</t>
+  </si>
+  <si>
+    <t>raketový pohon</t>
+  </si>
+  <si>
+    <t>nástroj</t>
+  </si>
+  <si>
+    <t>protractor</t>
+  </si>
+  <si>
+    <t>rychlost pohybu</t>
+  </si>
+  <si>
+    <t>velikos rychlosti</t>
+  </si>
+  <si>
+    <t>voda</t>
+  </si>
+  <si>
+    <t>dřevo</t>
+  </si>
+  <si>
+    <t>lano</t>
+  </si>
+  <si>
+    <t>úhloměr</t>
+  </si>
+  <si>
+    <t>acceleration</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>angular velocity</t>
+  </si>
+  <si>
+    <t>attraction</t>
+  </si>
+  <si>
+    <t>axis (axes)</t>
+  </si>
+  <si>
+    <t>axle</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>brush</t>
+  </si>
+  <si>
+    <t>brush-stroke</t>
+  </si>
+  <si>
+    <t>buoyancy</t>
+  </si>
+  <si>
+    <t>clone</t>
+  </si>
+  <si>
+    <t>collision</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>encircle</t>
+  </si>
+  <si>
+    <t>eraser</t>
+  </si>
+  <si>
+    <t>fixate</t>
+  </si>
+  <si>
+    <t>force</t>
+  </si>
+  <si>
+    <t>friction</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>glue</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>gravity</t>
+  </si>
+  <si>
+    <t>helium</t>
+  </si>
+  <si>
+    <t>chain</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>infinite</t>
+  </si>
+  <si>
+    <t>intersect</t>
+  </si>
+  <si>
+    <t>knife</t>
+  </si>
+  <si>
+    <t>kinetic energy</t>
+  </si>
+  <si>
+    <t>layer</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>liquify</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>mirror</t>
+  </si>
+  <si>
+    <t>moment of inertia</t>
+  </si>
+  <si>
+    <t>momentum</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>plane</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>polygon</t>
+  </si>
+  <si>
+    <t>potential energy</t>
+  </si>
+  <si>
+    <t>refractive index</t>
+  </si>
+  <si>
+    <t>restitution</t>
+  </si>
+  <si>
+    <t>rotate</t>
+  </si>
+  <si>
+    <t>rubber</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>scene</t>
+  </si>
+  <si>
+    <t>sketch</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>spongify</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>steel</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>subtract</t>
+  </si>
+  <si>
+    <t>thruster</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>tracer</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>veloctiy</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>rope</t>
+  </si>
+  <si>
+    <t>zrychlení</t>
+  </si>
+  <si>
+    <t>přidat</t>
+  </si>
+  <si>
+    <t>úhel</t>
+  </si>
+  <si>
+    <t>osa (osy)</t>
+  </si>
+  <si>
+    <t>hřídel</t>
+  </si>
+  <si>
+    <t>vztlak</t>
+  </si>
+  <si>
+    <t>kopie</t>
+  </si>
+  <si>
+    <t>srážka</t>
+  </si>
+  <si>
+    <t>zlato</t>
+  </si>
+  <si>
+    <t>spoj</t>
+  </si>
+  <si>
+    <t>otáčet</t>
+  </si>
+  <si>
+    <t>pružina</t>
+  </si>
+  <si>
+    <t>nástoj pro vytvoření stopy</t>
+  </si>
+  <si>
+    <t>hodnota</t>
   </si>
 </sst>
 </file>
@@ -634,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,408 +803,552 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" t="s">
         <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>79</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B68" t="s">
         <v>54</v>
       </c>
-      <c r="B61" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>69</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B72">
-    <sortCondition ref="A2:A72"/>
+  <sortState ref="A2:B66">
+    <sortCondition ref="A2:A66"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
